--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW18.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW18.xlsx
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.8309223876533784</v>
+        <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>2.8291541342928967</v>
+        <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>2.7714673857338497</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>2.676585091206608</v>
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
-        <v>2.7616953436026295</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>2.5014283889448214</v>
+        <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>2.8221455755736087</v>
+        <v>0.0</v>
       </c>
       <c r="I104" t="n">
-        <v>2.805122120607114</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.8309223876533784</v>
+        <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>2.8291541342928967</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>2.7714673857338497</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>2.123121357224185</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>2.2323140410220144</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>2.199213300438812</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>2.238877664565415</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>2.26212768873098</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>2.255269691777948</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>2.178189172893839</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>1.908505854066047</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>2.123121357224185</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>2.2323140410220144</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>2.199213300438812</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1771528892115064</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>1.2376941685764433</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>1.2193416461075908</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2413333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>1.2542241805887697</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>1.2504218021236877</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>1.207684934917481</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.0581605109602301</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.1771528892115064</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>1.2376941685764433</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>1.2193416461075908</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3939930215351</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.46563713004927487</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.39680000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4476682042123548</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.46296750922032803</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.489847423572677</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.433876909926961</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.40252689444890644</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.3939930215351</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.46563713004927487</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.39680000000000004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3858356327822184</v>
+        <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.3888589898706961</v>
+        <v>0.0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.33427220204663366</v>
+        <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.33754828485092664</v>
+        <v>0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.3999879843609615</v>
+        <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.39434064126326157</v>
+        <v>0.0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.3760879119492691</v>
+        <v>0.0</v>
       </c>
       <c r="J211" t="n">
-        <v>0.3858356327822184</v>
+        <v>0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>0.3888589898706961</v>
+        <v>0.0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.33427220204663366</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
@@ -9033,37 +9033,37 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.4107035508584646</v>
+        <v>-0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.4981889703128107</v>
+        <v>-0.0</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.4983715167001679</v>
+        <v>-0.0</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.48639999999999994</v>
+        <v>-0.0</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.47403893166394234</v>
+        <v>-0.0</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.4884775461921682</v>
+        <v>-0.0</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.44370826566135063</v>
+        <v>-0.0</v>
       </c>
       <c r="I236" t="n">
-        <v>-0.5106899796092741</v>
+        <v>-0.0</v>
       </c>
       <c r="J236" t="n">
-        <v>-0.4107035508584646</v>
+        <v>-0.0</v>
       </c>
       <c r="K236" t="n">
-        <v>-0.4981889703128107</v>
+        <v>-0.0</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.4983715167001679</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="237">
@@ -9641,37 +9641,37 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.35663096179353326</v>
+        <v>-0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.3397229076286132</v>
+        <v>-0.0</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.333713422296774</v>
+        <v>-0.0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.2879350961462753</v>
+        <v>-0.0</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.29566068470812756</v>
+        <v>-0.0</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.33474811400135923</v>
+        <v>-0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.32421872240414107</v>
+        <v>-0.0</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.323472698146018</v>
+        <v>-0.0</v>
       </c>
       <c r="J252" t="n">
-        <v>-0.35663096179353326</v>
+        <v>-0.0</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.3397229076286132</v>
+        <v>-0.0</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.333713422296774</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="253">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>2.945127528128632</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>2.643958326706722</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>2.52670077962108</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>2.4655493543262805</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>2.934158450561236</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>2.8116415490239564</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>2.9464769145523815</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>2.548735577773301</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>2.945127528128632</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>2.643958326706722</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>2.52670077962108</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>3.6572895828767686</v>
+        <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>3.4931039649973687</v>
+        <v>0.0</v>
       </c>
       <c r="D283" t="n">
-        <v>3.6462051583182262</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>3.165763694280481</v>
+        <v>0.0</v>
       </c>
       <c r="F283" t="n">
-        <v>3.86737101363812</v>
+        <v>0.0</v>
       </c>
       <c r="G283" t="n">
-        <v>3.5745416116399022</v>
+        <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>3.0515158881515787</v>
+        <v>0.0</v>
       </c>
       <c r="I283" t="n">
-        <v>3.0239622102636896</v>
+        <v>0.0</v>
       </c>
       <c r="J283" t="n">
-        <v>3.6572895828767686</v>
+        <v>0.0</v>
       </c>
       <c r="K283" t="n">
-        <v>3.4931039649973687</v>
+        <v>0.0</v>
       </c>
       <c r="L283" t="n">
-        <v>3.6462051583182262</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -11959,37 +11959,37 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="n">
-        <v>0.2599028131074371</v>
+        <v>0.0</v>
       </c>
       <c r="C313" t="n">
-        <v>0.25974047237189446</v>
+        <v>0.0</v>
       </c>
       <c r="D313" t="n">
-        <v>0.2544443369868669</v>
+        <v>0.0</v>
       </c>
       <c r="E313" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F313" t="n">
-        <v>0.2535471801976927</v>
+        <v>0.0</v>
       </c>
       <c r="G313" t="n">
-        <v>0.22965245458829794</v>
+        <v>0.0</v>
       </c>
       <c r="H313" t="n">
-        <v>0.2590970269228366</v>
+        <v>0.0</v>
       </c>
       <c r="I313" t="n">
-        <v>0.25753412860605607</v>
+        <v>0.0</v>
       </c>
       <c r="J313" t="n">
-        <v>0.2599028131074371</v>
+        <v>0.0</v>
       </c>
       <c r="K313" t="n">
-        <v>0.25974047237189446</v>
+        <v>0.0</v>
       </c>
       <c r="L313" t="n">
-        <v>0.2544443369868669</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="314">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>0.23236619530976252</v>
+        <v>0.0</v>
       </c>
       <c r="C396" t="n">
-        <v>0.2380101851920219</v>
+        <v>0.0</v>
       </c>
       <c r="D396" t="n">
-        <v>0.23515621520537028</v>
+        <v>0.0</v>
       </c>
       <c r="E396" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F396" t="n">
-        <v>0.24018068345851937</v>
+        <v>0.0</v>
       </c>
       <c r="G396" t="n">
-        <v>0.20368380863833108</v>
+        <v>0.0</v>
       </c>
       <c r="H396" t="n">
-        <v>0.24127717366467713</v>
+        <v>0.0</v>
       </c>
       <c r="I396" t="n">
-        <v>0.23442696632138432</v>
+        <v>0.0</v>
       </c>
       <c r="J396" t="n">
-        <v>0.23236619530976252</v>
+        <v>0.0</v>
       </c>
       <c r="K396" t="n">
-        <v>0.2380101851920219</v>
+        <v>0.0</v>
       </c>
       <c r="L396" t="n">
-        <v>0.23515621520537028</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>1.395535406372054</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>1.3741099299330946</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>1.1835839873940752</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>1.2413333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>1.374827938277661</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>1.4075853611390685</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>1.4020003943506616</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>1.195933999681158</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>1.395535406372054</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>1.3741099299330946</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>1.1835839873940752</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -16899,37 +16899,37 @@
         <v>442.0</v>
       </c>
       <c r="B443" t="n">
-        <v>0.02746183097191588</v>
+        <v>0.0</v>
       </c>
       <c r="C443" t="n">
-        <v>0.02988776611615415</v>
+        <v>0.0</v>
       </c>
       <c r="D443" t="n">
-        <v>0.029382251951232813</v>
+        <v>0.0</v>
       </c>
       <c r="E443" t="n">
-        <v>0.026586106800407575</v>
+        <v>0.0</v>
       </c>
       <c r="F443" t="n">
-        <v>0.030806670438904626</v>
+        <v>0.0</v>
       </c>
       <c r="G443" t="n">
-        <v>0.031034568785614895</v>
+        <v>0.0</v>
       </c>
       <c r="H443" t="n">
-        <v>0.027640136608824854</v>
+        <v>0.0</v>
       </c>
       <c r="I443" t="n">
-        <v>0.030514680584791905</v>
+        <v>0.0</v>
       </c>
       <c r="J443" t="n">
-        <v>0.02746183097191588</v>
+        <v>0.0</v>
       </c>
       <c r="K443" t="n">
-        <v>0.02988776611615415</v>
+        <v>0.0</v>
       </c>
       <c r="L443" t="n">
-        <v>0.029382251951232813</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="444">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>0.2332461765231397</v>
+        <v>0.0</v>
       </c>
       <c r="C480" t="n">
-        <v>0.20212364714668546</v>
+        <v>0.0</v>
       </c>
       <c r="D480" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="E480" t="n">
-        <v>0.24676137550904448</v>
+        <v>0.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.20779905299050155</v>
+        <v>0.0</v>
       </c>
       <c r="G480" t="n">
-        <v>0.23890458647129273</v>
+        <v>0.0</v>
       </c>
       <c r="H480" t="n">
-        <v>0.24497540640874985</v>
+        <v>0.0</v>
       </c>
       <c r="I480" t="n">
-        <v>0.24735922255966267</v>
+        <v>0.0</v>
       </c>
       <c r="J480" t="n">
-        <v>0.2332461765231397</v>
+        <v>0.0</v>
       </c>
       <c r="K480" t="n">
-        <v>0.20212364714668546</v>
+        <v>0.0</v>
       </c>
       <c r="L480" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.5931148715670561</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.5324628520822459</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.5088485283167281</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.4965333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.590905825279431</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.5662323279092678</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.5933866225006821</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.5132860836861435</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.5931148715670561</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.5324628520822459</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.5088485283167281</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>0.2935313395000227</v>
+        <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>0.26351477883662167</v>
+        <v>0.0</v>
       </c>
       <c r="D531" t="n">
-        <v>0.2518280981975644</v>
+        <v>0.0</v>
       </c>
       <c r="E531" t="n">
-        <v>0.24573333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>0.29243808700053475</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
-        <v>0.28022722350611723</v>
+        <v>0.0</v>
       </c>
       <c r="H531" t="n">
-        <v>0.29366582848248046</v>
+        <v>0.0</v>
       </c>
       <c r="I531" t="n">
-        <v>0.25402423529365264</v>
+        <v>0.0</v>
       </c>
       <c r="J531" t="n">
-        <v>0.2935313395000227</v>
+        <v>0.0</v>
       </c>
       <c r="K531" t="n">
-        <v>0.26351477883662167</v>
+        <v>0.0</v>
       </c>
       <c r="L531" t="n">
-        <v>0.2518280981975644</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="532">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>0.22493671797328377</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>0.244807275399664</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>0.2406666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>0.2177637613998347</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.25233391565545515</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>0.25420060495934643</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>0.22639719906077782</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>0.24994226014156096</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>0.22493671797328377</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>0.244807275399664</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>0.2406666666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
